--- a/data/income_statement/2digits/size/95_IS_MEDIUM.xlsx
+++ b/data/income_statement/2digits/size/95_IS_MEDIUM.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>95-Repair of computers and personal and household goods</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>95-Repair of computers and personal and household goods</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,95 +841,110 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>218815.37509</v>
+        <v>207436.28635</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>180011.81645</v>
+        <v>172261.9548</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>195685.7275</v>
+        <v>186608.73767</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>249461.42923</v>
+        <v>240648.56926</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>190944.02678</v>
+        <v>194964.62245</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>313412.05288</v>
+        <v>319515.31824</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>373851.7441</v>
+        <v>377924.63052</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>424142.6121</v>
+        <v>411977.85666</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>478792.66409</v>
+        <v>488684.48875</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>376644.68204</v>
+        <v>345928.58192</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>625431.1020999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>588586.67526</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>886584.883</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>180522.89541</v>
+        <v>170229.93873</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>141677.12283</v>
+        <v>135253.32518</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>144808.6893</v>
+        <v>135751.68764</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>184629.7738</v>
+        <v>175818.30399</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>160539.22367</v>
+        <v>167621.27014</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>256621.28641</v>
+        <v>266433.44705</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>303394.80106</v>
+        <v>320595.83527</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>362564.22831</v>
+        <v>353676.04457</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>416898.62859</v>
+        <v>432016.01573</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>316970.67702</v>
+        <v>286274.80879</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>553311.90767</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>516586.10844</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>798992.684</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>16868.92457</v>
+        <v>16597.63035</v>
       </c>
       <c r="D7" s="48" t="n">
         <v>21018.44746</v>
@@ -1040,73 +956,83 @@
         <v>39556.64465000001</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>15721.66895</v>
+        <v>12680.48946</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>30184.51825</v>
+        <v>26501.86961</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>26768.02759</v>
+        <v>14163.11228</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>19497.60626</v>
+        <v>16259.31514</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>19995.11878</v>
+        <v>14574.84886</v>
       </c>
       <c r="L7" s="48" t="n">
         <v>17989.35529</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>15943.14349</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>15881.63666</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>20637.529</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>21423.55511</v>
+        <v>20608.71727</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>17316.24616</v>
+        <v>15990.18216</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>21458.81742</v>
+        <v>21438.82925</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>25275.01078</v>
+        <v>25273.62062</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>14683.13416</v>
+        <v>14662.86285</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>26606.24822</v>
+        <v>26580.00158</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>43688.91544999999</v>
+        <v>43165.68297</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>42080.77752999999</v>
+        <v>42042.49695</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>41898.91672</v>
+        <v>42093.62416</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>41684.64973</v>
+        <v>41664.41784</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>56176.05094</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>56118.93016</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>66954.67</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>5421.17362</v>
+        <v>5413.838229999999</v>
       </c>
       <c r="D9" s="47" t="n">
         <v>2135.12274</v>
@@ -1115,37 +1041,42 @@
         <v>1435.45804</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>2247.50043</v>
+        <v>2026.30481</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>1897.64635</v>
+        <v>1899.65646</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>2003.47414</v>
+        <v>1929.39388</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>7884.178</v>
+        <v>1537.53555</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>3546.09615</v>
+        <v>3522.53026</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>5915.66455</v>
+        <v>6443.75246</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>6745.8993</v>
+        <v>5208.408060000001</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>8984.55797</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>8599.114949999999</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>7603.722</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>1379.23957</v>
+        <v>1373.13985</v>
       </c>
       <c r="D10" s="48" t="n">
         <v>1120.69586</v>
@@ -1154,37 +1085,42 @@
         <v>1346.60086</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>1736.48052</v>
+        <v>1736.14601</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>1159.98701</v>
+        <v>1163.61901</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>1422.82583</v>
+        <v>1353.21501</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>7731.84888</v>
+        <v>1385.20643</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>2532.10563</v>
+        <v>2508.53974</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>5188.167460000001</v>
+        <v>5718.54311</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>6010.83759</v>
+        <v>4473.34635</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>7313.44727</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>6928.00425</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>6057.58</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>4040.12681</v>
+        <v>4038.89114</v>
       </c>
       <c r="D11" s="48" t="n">
         <v>976.35943</v>
@@ -1216,11 +1152,16 @@
       <c r="M11" s="48" t="n">
         <v>192.76091</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11" s="48" t="n">
+        <v>208.021</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>1.80724</v>
@@ -1232,13 +1173,13 @@
         <v>3.47598</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>302.45564</v>
+        <v>81.59452999999999</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>1.62189</v>
+        <v>0</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>4.46944</v>
+        <v>0</v>
       </c>
       <c r="I12" s="48" t="n">
         <v>0</v>
@@ -1247,7 +1188,7 @@
         <v>125.03526</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>3.26567</v>
+        <v>0.97793</v>
       </c>
       <c r="L12" s="48" t="n">
         <v>0</v>
@@ -1255,89 +1196,104 @@
       <c r="M12" s="48" t="n">
         <v>1478.34979</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12" s="48" t="n">
+        <v>1338.121</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>213394.20147</v>
+        <v>202022.44812</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>177876.69371</v>
+        <v>170126.83206</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>194250.26946</v>
+        <v>185173.27963</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>247213.9288</v>
+        <v>238622.26445</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>189046.38043</v>
+        <v>193064.96599</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>311408.57874</v>
+        <v>317585.92436</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>365967.5661</v>
+        <v>376387.09497</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>420596.51595</v>
+        <v>408455.3264</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>472876.99954</v>
+        <v>482240.73629</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>369898.78274</v>
+        <v>340720.17386</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>616446.5441300001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>579987.56031</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>878981.161</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>177375.92942</v>
+        <v>166495.19102</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>151197.63913</v>
+        <v>145407.33315</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>142132.23437</v>
+        <v>136830.01498</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>190185.88962</v>
+        <v>183773.83917</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>138333.62579</v>
+        <v>141432.09173</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>243093.94487</v>
+        <v>247652.0769</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>283999.38008</v>
+        <v>294043.94703</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>336942.34858</v>
+        <v>330485.21295</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>375653.61996</v>
+        <v>390567.97695</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>296224.94017</v>
+        <v>270116.43997</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>474532.43952</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>458371.86048</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>734545.135</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>2189.45508</v>
@@ -1355,16 +1311,16 @@
         <v>12388.50596</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>27546.34423</v>
+        <v>23083.8054</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>55009.68823</v>
+        <v>54161.62805</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>40431.37654</v>
+        <v>39434.92604</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>46431.40264</v>
+        <v>42252.07957</v>
       </c>
       <c r="L15" s="48" t="n">
         <v>27316.05317</v>
@@ -1372,89 +1328,104 @@
       <c r="M15" s="48" t="n">
         <v>33330.70625</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15" s="48" t="n">
+        <v>34132.764</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>94817.04303999999</v>
+        <v>89784.70134</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>53087.84087000001</v>
+        <v>50361.909</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>27008.23079</v>
+        <v>21706.0114</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>51848.79868</v>
+        <v>48340.99639</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>41109.24829</v>
+        <v>35284.27666</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>69734.37976</v>
+        <v>77819.7172</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>75911.11921</v>
+        <v>76567.99068999999</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>97011.30996000001</v>
+        <v>94798.61973000001</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>116342.54605</v>
+        <v>135048.30822</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>88656.80650000001</v>
+        <v>62679.66742000001</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>147326.34891</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>132950.45275</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>283209.045</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>80153.72618000001</v>
+        <v>74305.32947999999</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>96371.18854</v>
+        <v>93306.81443000001</v>
       </c>
       <c r="E17" s="48" t="n">
         <v>106571.63386</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>133380.1393</v>
+        <v>130475.89114</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>84441.54043000001</v>
+        <v>93364.978</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>138611.67568</v>
+        <v>139547.0091</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>151615.79943</v>
+        <v>161851.55518</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>198572.71843</v>
+        <v>195324.72353</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>210919.30925</v>
+        <v>211307.22714</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>178969.97202</v>
+        <v>178838.6109</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>292463.85852</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>290679.17564</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>413687.92</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>215.70512</v>
@@ -1475,7 +1446,7 @@
         <v>7201.5452</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>1462.77321</v>
+        <v>1462.77311</v>
       </c>
       <c r="J18" s="48" t="n">
         <v>926.94365</v>
@@ -1489,89 +1460,104 @@
       <c r="M18" s="48" t="n">
         <v>1411.52584</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18" s="48" t="n">
+        <v>3515.406</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>36018.27205</v>
+        <v>35527.2571</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>26679.05458</v>
+        <v>24719.49891</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>52118.03509</v>
+        <v>48343.26465</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>57028.03918</v>
+        <v>54848.42528</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>50712.75464</v>
+        <v>51632.87426</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>68314.63387000001</v>
+        <v>69933.84745999999</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>81968.18602000001</v>
+        <v>82343.14794</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>83654.16737000001</v>
+        <v>77970.11345</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>97223.37957999999</v>
+        <v>91672.75934</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>73673.84256999999</v>
+        <v>70603.73389</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>141914.10461</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>121615.69983</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>144436.026</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>32704.04899</v>
+        <v>30118.98455</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>23133.18154</v>
+        <v>21449.44375</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>33677.81847</v>
+        <v>33228.94231000001</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>38937.8045</v>
+        <v>37475.89714</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>32475.04786</v>
+        <v>33001.51016</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>51860.02301999999</v>
+        <v>46418.33808</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>57251.06059</v>
+        <v>50549.30158</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>51253.02225</v>
+        <v>49650.3088</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>55750.50384</v>
+        <v>54886.56017</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>50945.97178</v>
+        <v>48312.38097</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>80177.91125</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>76884.37837000001</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>76524.83500000001</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>1932.32657</v>
@@ -1586,13 +1572,13 @@
         <v>1438.20658</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>835.28364</v>
+        <v>3.29179</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>2887.53658</v>
+        <v>0</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>2486.53338</v>
+        <v>0</v>
       </c>
       <c r="J21" s="48" t="n">
         <v>0</v>
@@ -1606,170 +1592,195 @@
       <c r="M21" s="48" t="n">
         <v>1100.63439</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>7953.839960000001</v>
+        <v>7888.74776</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>3317.043889999999</v>
+        <v>3291.46395</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>12298.64112</v>
+        <v>12281.84513</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>9092.748599999999</v>
+        <v>9090.49114</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>10522.77713</v>
+        <v>12630.29007</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>13699.37861</v>
+        <v>14264.47884</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>20758.87238</v>
+        <v>20886.9667</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>21434.20076</v>
+        <v>21068.02127</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>26265.78379</v>
+        <v>25790.43522</v>
       </c>
       <c r="L22" s="48" t="n">
         <v>20840.6848</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>39843.59798000001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>38963.15399</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>43465.778</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>22817.88246</v>
+        <v>20297.91022</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>17684.12231</v>
+        <v>16025.96446</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>18001.69867</v>
+        <v>17569.6185</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>28406.84932</v>
+        <v>26947.19942</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>21116.98709</v>
+        <v>20367.9283</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>35273.10783</v>
+        <v>32153.85924</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>34005.65483</v>
+        <v>29662.33488</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>29818.82149</v>
+        <v>28582.28753</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>29393.37669</v>
+        <v>29004.78159</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>29752.46026</v>
+        <v>27118.86945</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>39233.67887999999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>36820.58999</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>33059.057</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>3314.22306</v>
+        <v>5408.27255</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>3545.87304</v>
+        <v>3270.05516</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>18440.21662</v>
+        <v>15114.32234</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>18090.23468</v>
+        <v>17372.52814</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>18237.70678</v>
+        <v>18631.3641</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>16454.61085</v>
+        <v>23515.50938</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>24717.12543</v>
+        <v>31793.84636</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>32401.14512</v>
+        <v>28319.80465</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>41472.87574</v>
+        <v>36786.19917</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>22727.87079</v>
+        <v>22291.35292</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>61736.19336</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>44731.32146</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>67911.19100000001</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>8288.682580000001</v>
+        <v>7024.52876</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>8832.037490000001</v>
+        <v>7540.93754</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>5590.785609999999</v>
+        <v>5407.36989</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>8770.818120000002</v>
+        <v>8532.42512</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>11592.48532</v>
+        <v>28509.70053</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>7939.07255</v>
+        <v>21206.07873</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>21916.20876</v>
+        <v>31298.64293</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>12696.81431</v>
+        <v>12188.50356</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>8978.51023</v>
+        <v>7848.12738</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>21133.18388</v>
+        <v>21068.81511</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>24959.36385</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>20867.06895</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>25204.534</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>19.98153</v>
+        <v>0</v>
       </c>
       <c r="D26" s="48" t="n">
         <v>0</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>747.335</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>284.541</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>0</v>
@@ -1840,17 +1856,22 @@
       <c r="M27" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>946.9158199999999</v>
+        <v>351.6296899999999</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>758.34754</v>
+        <v>209.76887</v>
       </c>
       <c r="E28" s="48" t="n">
         <v>1052.45059</v>
@@ -1859,31 +1880,36 @@
         <v>1771.32167</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>1301.92186</v>
+        <v>1857.84938</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>1741.21383</v>
+        <v>2588.06062</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>1068.41951</v>
+        <v>1853.14296</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>2343.72755</v>
+        <v>2283.24764</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>3627.6397</v>
+        <v>3894.21825</v>
       </c>
       <c r="L28" s="48" t="n">
         <v>5584.68174</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>9839.784089999999</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>9064.403980000001</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>6137.403</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>11.70374</v>
@@ -1901,7 +1927,7 @@
         <v>0</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>26.80407</v>
+        <v>0</v>
       </c>
       <c r="I29" s="48" t="n">
         <v>0</v>
@@ -1918,11 +1944,16 @@
       <c r="M29" s="48" t="n">
         <v>7.47083</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>5.116</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>145.28292</v>
@@ -1957,11 +1988,16 @@
       <c r="M30" s="48" t="n">
         <v>144.27558</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>432.725</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>15.37049</v>
@@ -1970,10 +2006,10 @@
         <v>2.02283</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>23.87941</v>
+        <v>23.87915</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>19.19489</v>
+        <v>19.19478</v>
       </c>
       <c r="G31" s="48" t="n">
         <v>0.58846</v>
@@ -1996,50 +2032,60 @@
       <c r="M31" s="48" t="n">
         <v>70.63621999999999</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" s="48" t="n">
+        <v>426.703</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>6447.87621</v>
+        <v>5959.72675</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>7002.608850000001</v>
+        <v>6264.95522</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>4166.09512</v>
+        <v>3982.67966</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>6604.15971</v>
+        <v>6365.766819999999</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>10123.40346</v>
+        <v>26487.98587</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>4810.05563</v>
+        <v>17269.74762</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>20009.75058</v>
+        <v>28610.34388</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>6359.92655</v>
+        <v>5918.4613</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>4788.92978</v>
+        <v>3411.67742</v>
       </c>
       <c r="L32" s="48" t="n">
         <v>13708.99759</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>11940.40761</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>8623.492890000001</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>15506.962</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>0</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>160.69532</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>55.17</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0</v>
@@ -2113,17 +2164,22 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>701.55187</v>
+        <v>540.81517</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>996.28336</v>
+        <v>991.41571</v>
       </c>
       <c r="E35" s="48" t="n">
         <v>348.36049</v>
@@ -2132,73 +2188,83 @@
         <v>360.19356</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>149.33547</v>
+        <v>146.04075</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>607.86357</v>
+        <v>595.13504</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>218.19109</v>
+        <v>215.30851</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>2239.01369</v>
+        <v>2232.6481</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>369.6706800000001</v>
+        <v>349.9616399999999</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>1602.83592</v>
+        <v>1538.46715</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>2048.7592</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>2048.75913</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>2355.914</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>10527.36137</v>
+        <v>9557.704709999998</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>7643.823530000001</v>
+        <v>7216.226680000001</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>5790.28428</v>
+        <v>4470.71737</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>7741.59802</v>
+        <v>7596.680780000001</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>10087.59986</v>
+        <v>37264.41214</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>8053.89577</v>
+        <v>25976.99808</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>17593.04187</v>
+        <v>44399.1115</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>3213.12976</v>
+        <v>2832.51155</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>4589.38753</v>
+        <v>4724.41849</v>
       </c>
       <c r="L36" s="47" t="n">
         <v>6804.887320000001</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>9556.215169999999</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>9034.998240000001</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>11351.717</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>187.32264</v>
+        <v>137.74897</v>
       </c>
       <c r="D37" s="48" t="n">
         <v>0.91711</v>
@@ -2207,7 +2273,7 @@
         <v>4.911479999999999</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>10.76786</v>
+        <v>8.504479999999999</v>
       </c>
       <c r="G37" s="48" t="n">
         <v>5.04041</v>
@@ -2230,17 +2296,22 @@
       <c r="M37" s="48" t="n">
         <v>1061.15296</v>
       </c>
-    </row>
-    <row r="38" spans="1:13">
+      <c r="N37" s="48" t="n">
+        <v>2305.441</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>2686.21735</v>
+        <v>2211.2213</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>1883.71356</v>
+        <v>1840.77503</v>
       </c>
       <c r="E38" s="48" t="n">
         <v>652.4393</v>
@@ -2269,11 +2340,16 @@
       <c r="M38" s="48" t="n">
         <v>2659.02438</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" s="48" t="n">
+        <v>3211.264</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>0</v>
@@ -2308,50 +2384,60 @@
       <c r="M39" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>1.042</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>7546.084519999999</v>
+        <v>7177.66876</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>5745.23325</v>
+        <v>5360.57493</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>5087.91859</v>
+        <v>3813.11934</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>6796.08498</v>
+        <v>6653.43112</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>9643.38328</v>
+        <v>36820.19579999999</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>4922.2823</v>
+        <v>22898.23026</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>15500.16494</v>
+        <v>42306.23815</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>1678.47304</v>
+        <v>1297.85483</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>2730.3733</v>
+        <v>2857.63646</v>
       </c>
       <c r="L40" s="48" t="n">
         <v>5311.95417</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>4300.90706</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>3779.69013</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>4017.69</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>0</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>155.42577</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>62.281</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2425,38 +2516,43 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>107.73686</v>
+        <v>31.06568</v>
       </c>
       <c r="D43" s="48" t="n">
         <v>13.95961</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>45.01490999999999</v>
+        <v>0.24725</v>
       </c>
       <c r="F43" s="48" t="n">
         <v>41.32631000000001</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>9.12257</v>
+        <v>9.12233</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>2825.96234</v>
+        <v>2773.11669</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>31.93968</v>
+        <v>31.9361</v>
       </c>
       <c r="J43" s="48" t="n">
         <v>106.03381</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>18.62778</v>
+        <v>26.39558</v>
       </c>
       <c r="L43" s="48" t="n">
         <v>34.26128</v>
@@ -2464,89 +2560,104 @@
       <c r="M43" s="48" t="n">
         <v>1379.705</v>
       </c>
-    </row>
-    <row r="44" spans="1:13">
+      <c r="N43" s="48" t="n">
+        <v>1753.999</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>4046.35391</v>
+        <v>3555.60102</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>1473.06578</v>
+        <v>1456.22413</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>1956.96043</v>
+        <v>1932.82832</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>2601.61793</v>
+        <v>2301.87873</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>1295.56605</v>
+        <v>777.10634</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>4271.19541</v>
+        <v>1408.00767</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>6048.96176</v>
+        <v>3350.3073</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>4822.68654</v>
+        <v>3980.10953</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>4842.521890000001</v>
+        <v>3890.34106</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>6984.74931</v>
+        <v>6693.13007</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>7254.805689999999</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>6882.953189999999</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>7515.261</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>4046.35391</v>
+        <v>3555.60102</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>1473.06578</v>
+        <v>1456.22413</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>1956.96043</v>
+        <v>1932.82832</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>1875.42305</v>
+        <v>1575.68385</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>1295.56605</v>
+        <v>777.10634</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>4271.19541</v>
+        <v>1408.00767</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>6048.96176</v>
+        <v>3350.3073</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>4822.68654</v>
+        <v>3980.10953</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>4842.521890000001</v>
+        <v>3890.34106</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>6984.74931</v>
+        <v>6693.13007</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>7254.805689999999</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>6882.953189999999</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>7515.261</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>0</v>
@@ -2581,95 +2692,110 @@
       <c r="M46" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="N46" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>-2970.80964</v>
+        <v>-680.50442</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>3261.02122</v>
+        <v>2138.54189</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>16283.75752</v>
+        <v>14118.14654</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>16517.83685</v>
+        <v>16006.39375</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>18447.02619</v>
+        <v>9099.54615</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>12068.59222</v>
+        <v>17336.58236</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>22991.33056</v>
+        <v>15343.07049</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>37062.14313</v>
+        <v>33695.68713</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>41019.47655</v>
+        <v>36019.567</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>30071.41804</v>
+        <v>29862.15064</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>69884.53634999999</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>49680.43898</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>74248.747</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>755.98088</v>
+        <v>711.51946</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>2452.57907</v>
+        <v>2226.53866</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>1177.34795</v>
+        <v>978.8515</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>710.7958799999999</v>
+        <v>710.63923</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>689.9536599999999</v>
+        <v>686.87145</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>915.9442999999999</v>
+        <v>856.33061</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>1785.50995</v>
+        <v>1446.06161</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>2610.19694</v>
+        <v>2313.41013</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>3731.8421</v>
+        <v>3755.69463</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>3435.24183</v>
+        <v>3421.00532</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>3770.60527</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>3546.16093</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>5044.285</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>6.27072</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>0.007160000000000001</v>
+        <v>0</v>
       </c>
       <c r="E49" s="48" t="n">
         <v>66.14024999999999</v>
@@ -2678,10 +2804,10 @@
         <v>3.0696</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>18.53928</v>
+        <v>41.21315</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>5</v>
+        <v>20.92731</v>
       </c>
       <c r="I49" s="48" t="n">
         <v>30.36279</v>
@@ -2698,89 +2824,104 @@
       <c r="M49" s="48" t="n">
         <v>101.44779</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>749.7101599999999</v>
+        <v>705.24874</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>2452.57191</v>
+        <v>2226.53866</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>1111.2077</v>
+        <v>912.7112499999999</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>707.72628</v>
+        <v>707.56963</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>671.4143800000001</v>
+        <v>645.6583000000001</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>910.9442999999999</v>
+        <v>835.4032999999999</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>1755.14716</v>
+        <v>1415.69882</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>2610.19694</v>
+        <v>2313.41013</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>3731.8421</v>
+        <v>3755.69463</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>3435.24183</v>
+        <v>3421.00532</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>3669.15748</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>3444.71314</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>5044.285</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>2021.32316</v>
+        <v>1973.77005</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>3404.71408</v>
+        <v>3331.67837</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>10832.89118</v>
+        <v>6963.42913</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>4912.470740000001</v>
+        <v>4873.778029999999</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>10269.77162</v>
+        <v>14414.44897</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>11682.66123</v>
+        <v>10752.99988</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>12276.55428</v>
+        <v>11668.62807</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>15366.90205</v>
+        <v>15178.68393</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>16430.7052</v>
+        <v>15984.51994</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>6957.42087</v>
+        <v>6841.20671</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>2230.749</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>1938.49773</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>5375.497</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>0</v>
@@ -2804,7 +2945,7 @@
         <v>24.49982</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>1.93545</v>
+        <v>0</v>
       </c>
       <c r="K52" s="48" t="n">
         <v>0</v>
@@ -2815,38 +2956,43 @@
       <c r="M52" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>101.75711</v>
+        <v>90.25711</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>82.86895000000001</v>
+        <v>82.79960000000001</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>92.56694</v>
+        <v>92.51994000000001</v>
       </c>
       <c r="F53" s="48" t="n">
         <v>96.37101</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>78.90106</v>
+        <v>221.02983</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>55.17106</v>
+        <v>77.45489999999999</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>67.87394</v>
+        <v>110.0072</v>
       </c>
       <c r="J53" s="48" t="n">
         <v>0.70629</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>30.40394</v>
+        <v>24.7946</v>
       </c>
       <c r="L53" s="48" t="n">
         <v>0.2306</v>
@@ -2854,164 +3000,187 @@
       <c r="M53" s="48" t="n">
         <v>0.40394</v>
       </c>
-    </row>
-    <row r="54" spans="1:13">
+      <c r="N53" s="48" t="n">
+        <v>1.073</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>1919.56605</v>
+        <v>1883.51294</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>3321.84513</v>
+        <v>3248.87877</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>10740.32424</v>
+        <v>6870.90919</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>4816.099730000001</v>
+        <v>4777.40702</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>10190.87056</v>
+        <v>14193.41914</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>11627.49017</v>
+        <v>10675.54498</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>12184.18052</v>
+        <v>11534.12105</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>15364.26031</v>
+        <v>15177.97764</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>16400.30126</v>
+        <v>15959.72534</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>6957.190269999999</v>
+        <v>6840.976110000001</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>2230.34506</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>1938.09379</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>5374.424</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>-4236.15192</v>
+        <v>-1942.75501</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>2308.88621</v>
+        <v>1033.40218</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>6628.21429</v>
+        <v>8133.56891</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>12316.16199</v>
+        <v>11843.25495</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>8867.20823</v>
+        <v>-4628.031369999999</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>1301.87529</v>
+        <v>7439.91309</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>12500.28623</v>
+        <v>5120.504029999999</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>24305.43802000001</v>
+        <v>20830.41333</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>28320.61345</v>
+        <v>23790.74169</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>26549.239</v>
+        <v>26441.94925</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>71424.39262</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>51288.10218</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>73917.535</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>1860.33868</v>
+        <v>1647.76121</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>1236.71047</v>
+        <v>1007.53811</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>4020.669440000001</v>
+        <v>3329.56531</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>3208.01191</v>
+        <v>3178.7623</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>2440.55829</v>
+        <v>2424.41843</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>2998.193150000001</v>
+        <v>2973.74449</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>4084.89424</v>
+        <v>3762.58839</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>4900.54625</v>
+        <v>4125.592030000001</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>4834.25705</v>
+        <v>3736.75377</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>6875.14545</v>
+        <v>6833.43378</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>14520.06322</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>10035.4643</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>15772.284</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>-6096.490600000001</v>
+        <v>-3590.51622</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>1072.17574</v>
+        <v>25.86406999999983</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>2607.54485</v>
+        <v>4804.0036</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>9108.150079999999</v>
+        <v>8664.49265</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>6426.649939999999</v>
+        <v>-7052.4498</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>-1696.31786</v>
+        <v>4466.1686</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>8415.39199</v>
+        <v>1357.915640000001</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>19404.89177</v>
+        <v>16704.8213</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>23486.3564</v>
+        <v>20053.98792</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>19674.09355</v>
+        <v>19608.51547</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>56904.3294</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>41252.63788</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>58145.251</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E59" s="35" t="n">
+        <v>25</v>
+      </c>
+      <c r="F59" s="35" t="n">
+        <v>29</v>
+      </c>
+      <c r="G59" s="35" t="n">
+        <v>23</v>
+      </c>
+      <c r="H59" s="35" t="n">
+        <v>29</v>
+      </c>
+      <c r="I59" s="35" t="n">
         <v>30</v>
       </c>
-      <c r="F59" s="35" t="n">
-        <v>34</v>
-      </c>
-      <c r="G59" s="35" t="n">
+      <c r="J59" s="35" t="n">
         <v>27</v>
       </c>
-      <c r="H59" s="35" t="n">
-        <v>36</v>
-      </c>
-      <c r="I59" s="35" t="n">
-        <v>36</v>
-      </c>
-      <c r="J59" s="35" t="n">
-        <v>33</v>
-      </c>
       <c r="K59" s="35" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M59" s="35" t="n">
+        <v>23</v>
+      </c>
+      <c r="N59" s="35" t="n">
         <v>27</v>
       </c>
     </row>
-    <row r="60" spans="1:13">
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>